--- a/trend_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
+++ b/trend_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.772822409624178</v>
+        <v>0.227177590375822</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9503287414437041</v>
+        <v>0.0496712585562959</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0153354762339162</v>
+        <v>0.984664523766084</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.887932827228112</v>
+        <v>0.112067172771888</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">

--- a/trend_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
+++ b/trend_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.541359232474074</v>
+        <v>0.622723574387972</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.823529411764706</v>
+        <v>0.828571428571429</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0219473434535104</v>
+        <v>-0.162277853725222</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.15948280424617</v>
+        <v>-1.50537317430721</v>
       </c>
       <c r="M2" t="n">
-        <v>1.81482312067933</v>
+        <v>1.55442754111901</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.302721978669109</v>
+        <v>-2.1637047163363</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.367709522981182</v>
+        <v>0.666819186674373</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.725</v>
+        <v>5.86</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0548326762523192</v>
+        <v>0.0700415057915055</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.363339953562974</v>
+        <v>-0.193104644498549</v>
       </c>
       <c r="M3" t="n">
-        <v>0.294057842033304</v>
+        <v>0.390977747431759</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.957776004407322</v>
+        <v>1.19524753910419</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.227177590375822</v>
+        <v>0.144481930133766</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.91304347826087</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0411936090225571</v>
+        <v>-0.0500025851957035</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.12817718902645</v>
+        <v>-0.127470916916825</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0559365538804949</v>
+        <v>0.0259915373691504</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.370446124303571</v>
+        <v>-0.450473740501833</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.57519360592939</v>
+        <v>0.66069969485803</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.543478260869565</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0295</v>
+        <v>0.03</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.000296685255191</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0019988849747529</v>
+        <v>-0.0019258147354659</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0016855927180878</v>
+        <v>0.0012823965673367</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-0.98895085063671</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0530167209143492</v>
+        <v>0.138803188236473</v>
       </c>
       <c r="G6" t="n">
-        <v>0.152173913043478</v>
+        <v>0.102040816326531</v>
       </c>
       <c r="H6" t="n">
-        <v>0.41304347826087</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>1.71077283372365</v>
+        <v>1.23187796603424</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4.44427447497516</v>
+        <v>3.40548173334769</v>
       </c>
       <c r="N6" t="n">
-        <v>17.1077283372365</v>
+        <v>10.265649716952</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,13 +1029,13 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.9761904761904761</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="H7" t="n">
-        <v>0.19047619047619</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.269870585688445</v>
+        <v>0.783490863319485</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.836734693877551</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.0612244897959184</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.287979097954065</v>
+        <v>0.0001318206504691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.695652173913043</v>
+        <v>0.73469387755102</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0010435714285714</v>
+        <v>0.0075940250779387</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0024950036909655</v>
+        <v>0.0046108198490831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0043560367665218</v>
+        <v>0.0114248588680959</v>
       </c>
       <c r="N9" t="n">
-        <v>2.54529616724738</v>
+        <v>16.8756112843083</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0496712585562959</v>
+        <v>0.148378373696907</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.826086956521739</v>
+        <v>0.816326530612245</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>7.87</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0423672161172162</v>
+        <v>-0.0309044695859995</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0920185013199768</v>
+        <v>-0.07408495131148481</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0153222260620879</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.5383381971692019</v>
+        <v>-0.3926870341296</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.310716038418048</v>
+        <v>0.0003174023668966</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="H11" t="n">
-        <v>0.543478260869565</v>
+        <v>0.693877551020408</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0505</v>
+        <v>0.056</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007213627386438</v>
+        <v>0.0075740273581638</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0020924031607589</v>
+        <v>0.0044700303750101</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004544105923895</v>
+        <v>0.0111268244758568</v>
       </c>
       <c r="N11" t="n">
-        <v>1.42844106662148</v>
+        <v>13.525048853864</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1463,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.217806768441139</v>
+        <v>0.0007328100702667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6590909090909089</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H12" t="n">
-        <v>0.181818181818182</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.009740623399897501</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0045560666316971</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0145563653829328</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>12.175779249872</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.113643273095721</v>
+        <v>0.0631688079928408</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0869565217391304</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.239130434782609</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0027176339285714</v>
+        <v>0.0012494704877363</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008324779349792101</v>
+        <v>0.0023869293389573</v>
       </c>
       <c r="N13" t="n">
-        <v>3.88233418367347</v>
+        <v>3.90459527417618</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0025676656624307</v>
+        <v>0.793683807417764</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.58695652173913</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03</v>
+        <v>0.46</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0024082417582417</v>
+        <v>-0.0237175324675325</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0011968157741203</v>
+        <v>-0.0565092281884107</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0038315379771885</v>
+        <v>0.0327191532728129</v>
       </c>
       <c r="N14" t="n">
-        <v>8.027472527472529</v>
+        <v>-5.1559853190288</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0322870010765934</v>
+        <v>0.298080164721358</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H15" t="n">
-        <v>0.695652173913043</v>
+        <v>0.75</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.445</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0437862137862138</v>
+        <v>0.0847997467691233</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0026174568693027</v>
+        <v>-0.192889959877622</v>
       </c>
       <c r="M15" t="n">
-        <v>0.076452203095576</v>
+        <v>0.597734023860876</v>
       </c>
       <c r="N15" t="n">
-        <v>9.83959860364355</v>
+        <v>1.73060707692088</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1827,35 +1827,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.322249073341653</v>
+        <v>0.065279000551752</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="H16" t="n">
-        <v>0.772727272727273</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.825</v>
+        <v>5.68</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0746983854498367</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.237253936579606</v>
+        <v>-0.114063593252098</v>
       </c>
       <c r="M16" t="n">
-        <v>0.548020208644831</v>
+        <v>0.112689167131355</v>
       </c>
       <c r="N16" t="n">
-        <v>1.54815306631786</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.042134939276377</v>
+        <v>0.995493297354796</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08823529411764711</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.897058823529412</v>
+        <v>0.806122448979592</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.68</v>
+        <v>10.97</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0263767863352045</v>
+        <v>0.0374487354750514</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.168723335148353</v>
+        <v>0.0149794941900203</v>
       </c>
       <c r="M17" t="n">
-        <v>0.115478047251918</v>
+        <v>0.0610487675430223</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.464380041112755</v>
+        <v>0.341374069964005</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,14 +1998,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2013,31 +2013,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.984664523766084</v>
+        <v>0.991797716885171</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.813953488372093</v>
+        <v>0.320754716981132</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.97</v>
+        <v>0.031</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0519786535303776</v>
+        <v>-0.0006865601503759</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0099704276615103</v>
+        <v>-0.0011816550467695</v>
       </c>
       <c r="M18" t="n">
-        <v>0.077596140774639</v>
+        <v>-0.0001921319311548</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4738254651812</v>
+        <v>-2.21471016250303</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2104,31 +2104,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8186291376420169</v>
+        <v>0.0165833998946387</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.10377358490566</v>
       </c>
       <c r="H19" t="n">
-        <v>0.349056603773585</v>
+        <v>0.292452830188679</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0003113810741687</v>
+        <v>0.695714285714286</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0008811512692057</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0002105688999687</v>
+        <v>1.50087745254854</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.03793691389599</v>
+        <v>5.79761904761905</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,23 +2191,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.192974328940731</v>
+        <v>0.907439566278589</v>
       </c>
       <c r="G20" t="n">
-        <v>0.099009900990099</v>
+        <v>0.9494949494949499</v>
       </c>
       <c r="H20" t="n">
-        <v>0.287128712871287</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03840388603051</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.810617324270351</v>
+        <v>0.993233438150436</v>
       </c>
       <c r="G21" t="n">
-        <v>0.947368421052632</v>
+        <v>0.641509433962264</v>
       </c>
       <c r="H21" t="n">
-        <v>0.157894736842105</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,46 +2362,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9958795560227069</v>
+        <v>2.15918866913829e-08</v>
       </c>
       <c r="G22" t="n">
-        <v>0.537735849056604</v>
+        <v>0.132075471698113</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.584905660377358</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.039</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0047435064935064</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0036259062729272</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0056489839956481</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>12.1628371628372</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2468,31 +2468,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.13699454462123e-05</v>
+        <v>0.07998216121401</v>
       </c>
       <c r="G23" t="n">
-        <v>0.160377358490566</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.584905660377358</v>
+        <v>0.58252427184466</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0355</v>
+        <v>7.93</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0028725247440915</v>
+        <v>-0.0122773109243698</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0014955641492265</v>
+        <v>-0.0264208002994605</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0040975084566978</v>
+        <v>0.0016232981532479</v>
       </c>
       <c r="N23" t="n">
-        <v>8.091618997440911</v>
+        <v>-0.154821070925218</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2530,7 @@
           <t>Whai_2b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,14 +2540,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2559,31 +2555,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.112067172771888</v>
+        <v>1.39794921399038e-07</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="H24" t="n">
-        <v>0.616161616161616</v>
+        <v>0.5094339622641511</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.93</v>
+        <v>0.045</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0117696025778734</v>
+        <v>0.0049812762425544</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0265040194894737</v>
+        <v>0.0037665479059191</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0038485155663776</v>
+        <v>0.0059917200888276</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.14841869581177</v>
+        <v>11.0695027612321</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2617,11 @@
           <t>Whai_2b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2646,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.41275045162758e-05</v>
+        <v>3.946866683338e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.10377358490566</v>
       </c>
       <c r="H25" t="n">
-        <v>0.415094339622642</v>
+        <v>0.283018867924528</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.045</v>
+        <v>0.0775</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0033129585584132</v>
+        <v>0.0036356538264434</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0020068681318681</v>
+        <v>0.0020022633699683</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0046520528691737</v>
+        <v>0.0049947552784264</v>
       </c>
       <c r="N25" t="n">
-        <v>7.3621301298073</v>
+        <v>4.69116622766898</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2733,32 +2733,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.818932406961278</v>
+        <v>0.44453871230725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.525252525252525</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.141414141414141</v>
+        <v>0.292452830188679</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0003622718704757</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0004368010400968</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,46 +2813,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.202458812192219</v>
+        <v>0.0011030559872039</v>
       </c>
       <c r="G27" t="n">
-        <v>0.108910891089109</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.326732673267327</v>
+        <v>0.69811320754717</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.0232766861391397</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0003916415393773</v>
+        <v>0.0111201731944547</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001977245457529</v>
+        <v>0.0353215225421232</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>5.96838106131786</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2891,188 +2891,6 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Whakapapa at Footbridge</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.587238294130456</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.306930693069307</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-0.0005435267857142</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.0003753854059609</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>1813128.407</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5667238.188</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Cherry Grove</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Whai_2b</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Whakapapa at Footbridge</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0007326544232849</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.702970297029703</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0241702672138252</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.0132037373245883</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.0349680650003103</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6.19750441380134</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>1813128.407</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5667238.188</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Cherry Grove</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Whai_2b</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
+++ b/trend_results/Rivers/WhakapapaatFootbridge_06d083a5b0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -130,55 +130,61 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,31 +666,31 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.622723574387972</v>
+        <v>0.538566211030543</v>
       </c>
       <c r="G2">
-        <v>0.0285714285714286</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H2">
-        <v>0.828571428571429</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>-0.162277853725222</v>
+        <v>-0.0465880102040817</v>
       </c>
       <c r="L2">
-        <v>-1.50537317430721</v>
+        <v>-1.78718173905787</v>
       </c>
       <c r="M2">
-        <v>1.55442754111901</v>
+        <v>1.09599340588656</v>
       </c>
       <c r="N2">
-        <v>-2.1637047163363</v>
+        <v>-0.665543002915452</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -699,19 +705,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,37 +737,37 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>0.666819186674373</v>
+        <v>0.840042513933648</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.95</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.86</v>
+        <v>5.8</v>
       </c>
       <c r="K3">
-        <v>0.0700415057915055</v>
+        <v>0.154603174603175</v>
       </c>
       <c r="L3">
-        <v>-0.193104644498549</v>
+        <v>-0.123840534271381</v>
       </c>
       <c r="M3">
-        <v>0.390977747431759</v>
+        <v>0.461227228597207</v>
       </c>
       <c r="N3">
-        <v>1.19524753910419</v>
+        <v>2.66557197591681</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>1813128.407</v>
@@ -770,19 +776,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,43 +802,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
       </c>
       <c r="F4">
-        <v>0.144481930133766</v>
+        <v>0.074457336589383</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.918367346938776</v>
+        <v>0.936170212765957</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.1</v>
+        <v>11.07</v>
       </c>
       <c r="K4">
-        <v>-0.0500025851957035</v>
+        <v>-0.06542821694434579</v>
       </c>
       <c r="L4">
-        <v>-0.127470916916825</v>
+        <v>-0.114493659384447</v>
       </c>
       <c r="M4">
-        <v>0.0259915373691504</v>
+        <v>0.0012023227066687</v>
       </c>
       <c r="N4">
-        <v>-0.450473740501833</v>
+        <v>-0.591040803471958</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1813128.407</v>
@@ -841,19 +847,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,43 +873,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
       <c r="F5">
-        <v>0.66069969485803</v>
+        <v>0.0489928037673116</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.571428571428571</v>
+        <v>0.54</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="K5">
-        <v>-0.000296685255191</v>
+        <v>0.0007107657967032</v>
       </c>
       <c r="L5">
-        <v>-0.0019258147354659</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0012823965673367</v>
+        <v>0.0029697347595624</v>
       </c>
       <c r="N5">
-        <v>-0.98895085063671</v>
+        <v>2.53844927394034</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1813128.407</v>
@@ -912,19 +918,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,43 +944,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>0.138803188236473</v>
+        <v>0.179650326951286</v>
       </c>
       <c r="G6">
-        <v>0.102040816326531</v>
+        <v>0.08</v>
       </c>
       <c r="H6">
-        <v>0.428571428571429</v>
+        <v>0.46</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>14.2</v>
       </c>
       <c r="K6">
-        <v>1.23187796603424</v>
+        <v>1.22084478021978</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-1.16994472990138</v>
       </c>
       <c r="M6">
-        <v>3.40548173334769</v>
+        <v>3.31648586089667</v>
       </c>
       <c r="N6">
-        <v>10.265649716952</v>
+        <v>8.597498452251971</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1813128.407</v>
@@ -983,19 +989,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,22 +1018,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>0.978260869565217</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="H7">
-        <v>0.108695652173913</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1813128.407</v>
@@ -1036,19 +1042,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1065,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>0.783490863319485</v>
+        <v>0.99432124596384</v>
       </c>
       <c r="G8">
-        <v>0.836734693877551</v>
+        <v>0.82</v>
       </c>
       <c r="H8">
-        <v>0.0612244897959184</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1098,7 +1104,7 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1813128.407</v>
@@ -1107,19 +1113,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1133,43 +1139,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>0.0001318206504691</v>
+        <v>0.0011787637978977</v>
       </c>
       <c r="G9">
-        <v>0.0204081632653061</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.73469387755102</v>
+        <v>0.68</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.045</v>
+        <v>0.0505</v>
       </c>
       <c r="K9">
-        <v>0.0075940250779387</v>
+        <v>0.0062146647574124</v>
       </c>
       <c r="L9">
-        <v>0.0046108198490831</v>
+        <v>0.0028970269311611</v>
       </c>
       <c r="M9">
-        <v>0.0114248588680959</v>
+        <v>0.008593801207730499</v>
       </c>
       <c r="N9">
-        <v>16.8756112843083</v>
+        <v>12.3062668463612</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1813128.407</v>
@@ -1178,19 +1184,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1210,37 +1216,37 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>0.148378373696907</v>
+        <v>0.750416995637508</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.816326530612245</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.87</v>
+        <v>7.94</v>
       </c>
       <c r="K10">
-        <v>-0.0309044695859995</v>
+        <v>0.022237494439915</v>
       </c>
       <c r="L10">
-        <v>-0.07408495131148481</v>
+        <v>-0.0335259015260492</v>
       </c>
       <c r="M10">
-        <v>0.0153222260620879</v>
+        <v>0.0687298314885787</v>
       </c>
       <c r="N10">
-        <v>-0.3926870341296</v>
+        <v>0.280069199495151</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1813128.407</v>
@@ -1249,16 +1255,16 @@
         <v>5667238.188</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,37 +1284,37 @@
         <v>37</v>
       </c>
       <c r="F11">
-        <v>0.0003174023668966</v>
+        <v>0.0446747660149158</v>
       </c>
       <c r="G11">
-        <v>0.0204081632653061</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.693877551020408</v>
+        <v>0.74</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="K11">
-        <v>0.0075740273581638</v>
+        <v>0.003298645320197</v>
       </c>
       <c r="L11">
-        <v>0.0044700303750101</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0111268244758568</v>
+        <v>0.0068772889548893</v>
       </c>
       <c r="N11">
-        <v>13.525048853864</v>
+        <v>5.59092427152042</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1813128.407</v>
@@ -1317,19 +1323,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1346,40 +1352,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0007328100702667</v>
+        <v>0.204395819753028</v>
       </c>
       <c r="G12">
-        <v>0.0408163265306122</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.285714285714286</v>
+        <v>0.32</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0.08</v>
       </c>
       <c r="K12">
-        <v>0.009740623399897501</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0045560666316971</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0145563653829328</v>
+        <v>0.0075621118012422</v>
       </c>
       <c r="N12">
-        <v>12.175779249872</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1813128.407</v>
@@ -1388,19 +1394,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,37 +1426,37 @@
         <v>37</v>
       </c>
       <c r="F13">
-        <v>0.0631688079928408</v>
+        <v>0.0709610494812498</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.571428571428571</v>
+        <v>0.54</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.032</v>
+        <v>0.0315</v>
       </c>
       <c r="K13">
-        <v>0.0012494704877363</v>
+        <v>0.0013494458128078</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0023869293389573</v>
+        <v>0.0025196649236284</v>
       </c>
       <c r="N13">
-        <v>3.90459527417618</v>
+        <v>4.28395496129486</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1813128.407</v>
@@ -1459,19 +1465,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,37 +1497,37 @@
         <v>37</v>
       </c>
       <c r="F14">
-        <v>0.793683807417764</v>
+        <v>0.9880693411578449</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.857142857142857</v>
+        <v>0.82</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="K14">
-        <v>-0.0237175324675325</v>
+        <v>-0.0466860902255639</v>
       </c>
       <c r="L14">
-        <v>-0.0565092281884107</v>
+        <v>-0.0769420076119694</v>
       </c>
       <c r="M14">
-        <v>0.0327191532728129</v>
+        <v>-0.0168073508926478</v>
       </c>
       <c r="N14">
-        <v>-5.1559853190288</v>
+        <v>-11.3868512745278</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q14">
         <v>1813128.407</v>
@@ -1530,19 +1536,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,37 +1568,37 @@
         <v>37</v>
       </c>
       <c r="F15">
-        <v>0.298080164721358</v>
+        <v>0.0622112367902716</v>
       </c>
       <c r="G15">
-        <v>0.0113636363636364</v>
+        <v>0.0114942528735632</v>
       </c>
       <c r="H15">
-        <v>0.75</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="K15">
-        <v>0.0847997467691233</v>
+        <v>0.271763392857143</v>
       </c>
       <c r="L15">
-        <v>-0.192889959877622</v>
+        <v>-0.0019905538464783</v>
       </c>
       <c r="M15">
-        <v>0.597734023860876</v>
+        <v>0.737712809646613</v>
       </c>
       <c r="N15">
-        <v>1.73060707692088</v>
+        <v>6.03918650793651</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1813128.407</v>
@@ -1601,19 +1607,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1630,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.065279000551752</v>
+        <v>0.137954406195178</v>
       </c>
       <c r="G16">
-        <v>0.0789473684210526</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H16">
-        <v>0.8947368421052631</v>
+        <v>0.869047619047619</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>5.68</v>
+        <v>5.86</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.0377768681331848</v>
       </c>
       <c r="L16">
-        <v>-0.114063593252098</v>
+        <v>-0.147339901115935</v>
       </c>
       <c r="M16">
-        <v>0.112689167131355</v>
+        <v>0.06453895700540251</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-0.6446564527847231</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1813128.407</v>
@@ -1672,19 +1678,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,37 +1710,37 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>0.995493297354796</v>
+        <v>0.9976504436292269</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.806122448979592</v>
+        <v>0.774509803921569</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.97</v>
+        <v>10.965</v>
       </c>
       <c r="K17">
-        <v>0.0374487354750514</v>
+        <v>0.0393800539083567</v>
       </c>
       <c r="L17">
-        <v>0.0149794941900203</v>
+        <v>0.0150020393195476</v>
       </c>
       <c r="M17">
-        <v>0.0610487675430223</v>
+        <v>0.0614734692125604</v>
       </c>
       <c r="N17">
-        <v>0.341374069964005</v>
+        <v>0.359143218498465</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1813128.407</v>
@@ -1743,19 +1749,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1772,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.991797716885171</v>
+        <v>0.676941936510643</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1787,25 +1793,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="K18">
-        <v>-0.0006865601503759</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0011816550467695</v>
+        <v>-0.0005539362812686</v>
       </c>
       <c r="M18">
-        <v>-0.0001921319311548</v>
+        <v>0.0002940240342564</v>
       </c>
       <c r="N18">
-        <v>-2.21471016250303</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
         <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1813128.407</v>
@@ -1814,19 +1820,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1840,19 +1846,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.0165833998946387</v>
+        <v>0.0037567910813788</v>
       </c>
       <c r="G19">
-        <v>0.10377358490566</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="H19">
-        <v>0.292452830188679</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1861,22 +1867,22 @@
         <v>12</v>
       </c>
       <c r="K19">
-        <v>0.695714285714286</v>
+        <v>0.796619411123228</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0140177790952163</v>
       </c>
       <c r="M19">
-        <v>1.50087745254854</v>
+        <v>1.48476249004898</v>
       </c>
       <c r="N19">
-        <v>5.79761904761905</v>
+        <v>6.63849509269357</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1813128.407</v>
@@ -1885,19 +1891,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1914,16 +1920,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.907439566278589</v>
+        <v>0.801433048050365</v>
       </c>
       <c r="G20">
-        <v>0.9494949494949499</v>
+        <v>0.95</v>
       </c>
       <c r="H20">
-        <v>0.151515151515152</v>
+        <v>0.15</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1947,7 +1953,7 @@
         <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1813128.407</v>
@@ -1956,19 +1962,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1985,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>0.993233438150436</v>
+        <v>0.99978907016422</v>
       </c>
       <c r="G21">
-        <v>0.641509433962264</v>
+        <v>0.745283018867924</v>
       </c>
       <c r="H21">
-        <v>0.0660377358490566</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2018,7 +2024,7 @@
         <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1813128.407</v>
@@ -2027,19 +2033,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2059,37 +2065,37 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>2.15918866913829E-08</v>
+        <v>7.163585838355041E-09</v>
       </c>
       <c r="G22">
-        <v>0.132075471698113</v>
+        <v>0.0849056603773585</v>
       </c>
       <c r="H22">
-        <v>0.584905660377358</v>
+        <v>0.575471698113208</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="K22">
-        <v>0.0047435064935064</v>
+        <v>0.0044818395062239</v>
       </c>
       <c r="L22">
-        <v>0.0036259062729272</v>
+        <v>0.0031695857597847</v>
       </c>
       <c r="M22">
-        <v>0.0056489839956481</v>
+        <v>0.0051923172395108</v>
       </c>
       <c r="N22">
-        <v>12.1628371628372</v>
+        <v>10.1859988777817</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1813128.407</v>
@@ -2098,19 +2104,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2130,37 +2136,37 @@
         <v>37</v>
       </c>
       <c r="F23">
-        <v>0.07998216121401</v>
+        <v>0.363778394859439</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.58252427184466</v>
+        <v>0.596153846153846</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.93</v>
+        <v>7.945</v>
       </c>
       <c r="K23">
-        <v>-0.0122773109243698</v>
+        <v>-0.0025209392661253</v>
       </c>
       <c r="L23">
-        <v>-0.0264208002994605</v>
+        <v>-0.0155667847132488</v>
       </c>
       <c r="M23">
-        <v>0.0016232981532479</v>
+        <v>0.009845013477089</v>
       </c>
       <c r="N23">
-        <v>-0.154821070925218</v>
+        <v>-0.0317298837775374</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>1813128.407</v>
@@ -2169,16 +2175,16 @@
         <v>5667238.188</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,37 +2204,37 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>1.39794921399038E-07</v>
+        <v>3.73684616504926E-07</v>
       </c>
       <c r="G24">
         <v>0.0566037735849057</v>
       </c>
       <c r="H24">
-        <v>0.5094339622641511</v>
+        <v>0.471698113207547</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="K24">
-        <v>0.0049812762425544</v>
+        <v>0.0043026203077744</v>
       </c>
       <c r="L24">
-        <v>0.0037665479059191</v>
+        <v>0.0031848308543694</v>
       </c>
       <c r="M24">
-        <v>0.0059917200888276</v>
+        <v>0.0054935262448059</v>
       </c>
       <c r="N24">
-        <v>11.0695027612321</v>
+        <v>8.27426982264311</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1813128.407</v>
@@ -2237,19 +2243,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,37 +2275,37 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <v>3.946866683338E-05</v>
+        <v>0.0137341069616821</v>
       </c>
       <c r="G25">
         <v>0.10377358490566</v>
       </c>
       <c r="H25">
-        <v>0.283018867924528</v>
+        <v>0.19811320754717</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.0775</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>0.0036356538264434</v>
+        <v>0.0024914838305616</v>
       </c>
       <c r="L25">
-        <v>0.0020022633699683</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0049947552784264</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="N25">
-        <v>4.69116622766898</v>
+        <v>3.11435478820202</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1813128.407</v>
@@ -2308,19 +2314,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2337,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26">
-        <v>0.44453871230725</v>
+        <v>0.09232876334355671</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.292452830188679</v>
+        <v>0.283018867924528</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2355,22 +2361,22 @@
         <v>0.03</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.000276809397499</v>
       </c>
       <c r="L26">
-        <v>-0.0003622718704757</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.0004368010400968</v>
+        <v>0.0006324675324675001</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.92269799166351</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1813128.407</v>
@@ -2379,19 +2385,19 @@
         <v>5667238.188</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,37 +2417,37 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>0.0011030559872039</v>
+        <v>0.186667390327515</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.69811320754717</v>
+        <v>0.622641509433962</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="K27">
-        <v>0.0232766861391397</v>
+        <v>0.0066895604395604</v>
       </c>
       <c r="L27">
-        <v>0.0111201731944547</v>
+        <v>-0.004752418037184</v>
       </c>
       <c r="M27">
-        <v>0.0353215225421232</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="N27">
-        <v>5.96838106131786</v>
+        <v>1.7375481661196</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1813128.407</v>
@@ -2450,19 +2456,513 @@
         <v>5667238.188</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <v>0.0725598524719456</v>
+      </c>
+      <c r="G28">
+        <v>0.007874015748031499</v>
+      </c>
+      <c r="H28">
+        <v>0.6850393700787401</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>4.15</v>
+      </c>
+      <c r="K28">
+        <v>0.153466386554622</v>
+      </c>
+      <c r="L28">
+        <v>-0.0063518499175704</v>
+      </c>
+      <c r="M28">
+        <v>0.390430919940259</v>
+      </c>
+      <c r="N28">
+        <v>3.69798521818366</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28">
+        <v>1813128.407</v>
+      </c>
+      <c r="R28">
+        <v>5667238.188</v>
+      </c>
+      <c r="S28" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>0.0086034168693666</v>
+      </c>
+      <c r="G29">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="H29">
+        <v>0.276315789473684</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.029</v>
+      </c>
+      <c r="K29">
+        <v>0.0004916550492154</v>
+      </c>
+      <c r="L29">
+        <v>0.0001203531776832</v>
+      </c>
+      <c r="M29">
+        <v>0.0008167422557116</v>
+      </c>
+      <c r="N29">
+        <v>1.69536223867405</v>
+      </c>
+      <c r="O29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <v>1813128.407</v>
+      </c>
+      <c r="R29">
+        <v>5667238.188</v>
+      </c>
+      <c r="S29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>0.966427622208122</v>
+      </c>
+      <c r="G30">
+        <v>0.921259842519685</v>
+      </c>
+      <c r="H30">
+        <v>0.173228346456693</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>0.005</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30">
+        <v>1813128.407</v>
+      </c>
+      <c r="R30">
+        <v>5667238.188</v>
+      </c>
+      <c r="S30" t="s">
+        <v>57</v>
+      </c>
+      <c r="T30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <v>0.983418336217883</v>
+      </c>
+      <c r="G31">
+        <v>0.655629139072848</v>
+      </c>
+      <c r="H31">
+        <v>0.0728476821192053</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.001</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31">
+        <v>1813128.407</v>
+      </c>
+      <c r="R31">
+        <v>5667238.188</v>
+      </c>
+      <c r="S31" t="s">
+        <v>57</v>
+      </c>
+      <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>2.64138899248071E-10</v>
+      </c>
+      <c r="G32">
+        <v>0.112582781456954</v>
+      </c>
+      <c r="H32">
+        <v>0.562913907284768</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.039</v>
+      </c>
+      <c r="K32">
+        <v>0.0028119025394036</v>
+      </c>
+      <c r="L32">
+        <v>0.0019974807757976</v>
+      </c>
+      <c r="M32">
+        <v>0.0036161976461471</v>
+      </c>
+      <c r="N32">
+        <v>7.21000651129138</v>
+      </c>
+      <c r="O32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q32">
+        <v>1813128.407</v>
+      </c>
+      <c r="R32">
+        <v>5667238.188</v>
+      </c>
+      <c r="S32" t="s">
+        <v>57</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>0.112764133917274</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.5190839694656491</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.96</v>
+      </c>
+      <c r="K33">
+        <v>-0.0070730054221532</v>
+      </c>
+      <c r="L33">
+        <v>-0.0179571923018055</v>
+      </c>
+      <c r="M33">
+        <v>0.0024644108944754</v>
+      </c>
+      <c r="N33">
+        <v>-0.0888568520371007</v>
+      </c>
+      <c r="O33" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" t="s">
         <v>56</v>
       </c>
-      <c r="U27" t="s">
-        <v>57</v>
-      </c>
-      <c r="V27" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" t="s">
-        <v>64</v>
+      <c r="Q33">
+        <v>1813128.407</v>
+      </c>
+      <c r="R33">
+        <v>5667238.188</v>
+      </c>
+      <c r="S33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>6.57256602078374E-09</v>
+      </c>
+      <c r="G34">
+        <v>0.0397350993377483</v>
+      </c>
+      <c r="H34">
+        <v>0.52317880794702</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.045</v>
+      </c>
+      <c r="K34">
+        <v>0.0026871641864857</v>
+      </c>
+      <c r="L34">
+        <v>0.0018460770750389</v>
+      </c>
+      <c r="M34">
+        <v>0.0036141597890339</v>
+      </c>
+      <c r="N34">
+        <v>5.9714759699684</v>
+      </c>
+      <c r="O34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34">
+        <v>1813128.407</v>
+      </c>
+      <c r="R34">
+        <v>5667238.188</v>
+      </c>
+      <c r="S34" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
